--- a/data/trans_orig/Q25_A_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>44349</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33984</v>
+        <v>34606</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57395</v>
+        <v>58554</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1495117429706076</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1145671524858452</v>
+        <v>0.1166648674652755</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1934920633167302</v>
+        <v>0.1973996065751622</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>3257</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8594</v>
+        <v>7639</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06441588477290135</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01851915753934487</v>
+        <v>0.01845337969796504</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1699838032312895</v>
+        <v>0.1511033863003456</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -786,19 +786,19 @@
         <v>47606</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36556</v>
+        <v>35540</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61167</v>
+        <v>59782</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1371199022999982</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1052915727331478</v>
+        <v>0.1023646484039344</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1761793260540609</v>
+        <v>0.1721915579536088</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>103289</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88325</v>
+        <v>87016</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>118884</v>
+        <v>118843</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3482101216808583</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2977628620004409</v>
+        <v>0.293351898589908</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4007861598969853</v>
+        <v>0.4006466183446268</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -836,19 +836,19 @@
         <v>14294</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8429</v>
+        <v>8473</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21435</v>
+        <v>21856</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2827162185396964</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1667125922165363</v>
+        <v>0.1675905820235129</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4239735560544869</v>
+        <v>0.4322914812453191</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>120</v>
@@ -857,19 +857,19 @@
         <v>117582</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>100537</v>
+        <v>100884</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>134532</v>
+        <v>135309</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3386727595834457</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2895765099247827</v>
+        <v>0.2905748234713615</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.387491252782414</v>
+        <v>0.3897295805763313</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>103645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>89146</v>
+        <v>88186</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>118412</v>
+        <v>121267</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3494093314100499</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3005311219576969</v>
+        <v>0.2972961667565523</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.399194409542937</v>
+        <v>0.4088174487921346</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -907,19 +907,19 @@
         <v>19228</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12635</v>
+        <v>12951</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25973</v>
+        <v>26540</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3803108922207773</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2499058768816534</v>
+        <v>0.2561619685973809</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5137222148728523</v>
+        <v>0.5249502204530404</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>126</v>
@@ -928,19 +928,19 @@
         <v>122872</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>106092</v>
+        <v>106938</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>141557</v>
+        <v>139814</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3539092827137903</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3055761793255154</v>
+        <v>0.3080128476834396</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4077267658119287</v>
+        <v>0.4027061723936973</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>45345</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34819</v>
+        <v>34888</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58842</v>
+        <v>60128</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1528688039384843</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1173815130934969</v>
+        <v>0.1176150814263082</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.198370566509253</v>
+        <v>0.2027067165458823</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -978,19 +978,19 @@
         <v>13780</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7965</v>
+        <v>7763</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20475</v>
+        <v>20149</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.272557004466625</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.157547682073913</v>
+        <v>0.1535557423518077</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4049899836986823</v>
+        <v>0.3985299063349508</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -999,19 +999,19 @@
         <v>59125</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46459</v>
+        <v>45316</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73446</v>
+        <v>73622</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1702980554027658</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1338146037996843</v>
+        <v>0.1305228918654171</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.211547851116617</v>
+        <v>0.2120536086982196</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>15222</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8582</v>
+        <v>8335</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24799</v>
+        <v>24253</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06523475065681715</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.036778868822035</v>
+        <v>0.03572275880255422</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1062803039144481</v>
+        <v>0.1039400934989236</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1127,16 +1127,16 @@
         <v>936</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8246</v>
+        <v>8385</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0206314807327762</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006326314452899024</v>
+        <v>0.006321961541735029</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05570822010539866</v>
+        <v>0.05664475428954512</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>17</v>
@@ -1145,19 +1145,19 @@
         <v>18276</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11047</v>
+        <v>10725</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28594</v>
+        <v>28513</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04792215738210352</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02896801926809476</v>
+        <v>0.02812218399645404</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0749779772607906</v>
+        <v>0.07476613393367137</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>47011</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36209</v>
+        <v>34917</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61422</v>
+        <v>61036</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2014718952233984</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.155178150996353</v>
+        <v>0.1496396680690374</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2632334946086485</v>
+        <v>0.2615777823480761</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1195,19 +1195,19 @@
         <v>17710</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9522</v>
+        <v>11255</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26743</v>
+        <v>26724</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1196455088707467</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06432508650815742</v>
+        <v>0.07603436018005204</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1806668101191757</v>
+        <v>0.180535680860387</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -1216,19 +1216,19 @@
         <v>64721</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50662</v>
+        <v>49625</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80587</v>
+        <v>80554</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1697112877953882</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1328440421679911</v>
+        <v>0.1301268920824138</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2113142914816312</v>
+        <v>0.211226995899569</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>97139</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>82702</v>
+        <v>83030</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>113143</v>
+        <v>113295</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4163030358536536</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3544289085928277</v>
+        <v>0.3558376324098094</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4848872925748031</v>
+        <v>0.4855411468015617</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>60</v>
@@ -1266,19 +1266,19 @@
         <v>63269</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>52133</v>
+        <v>51660</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>76186</v>
+        <v>74894</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4274221597288888</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3521926292865846</v>
+        <v>0.3489959359523832</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5146862298234013</v>
+        <v>0.5059578636952062</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>157</v>
@@ -1287,19 +1287,19 @@
         <v>160408</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>140996</v>
+        <v>142174</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>179558</v>
+        <v>180127</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4206188824171664</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3697160825544498</v>
+        <v>0.3728053515309632</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.470834324169</v>
+        <v>0.4723260592985852</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>73966</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59179</v>
+        <v>59783</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>87757</v>
+        <v>88409</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3169903182661309</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2536184090118768</v>
+        <v>0.2562057513719784</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3760945351670474</v>
+        <v>0.3788876635545572</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>64</v>
@@ -1337,19 +1337,19 @@
         <v>63991</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>52056</v>
+        <v>52605</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>75472</v>
+        <v>75828</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4323008506675883</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3516718029314828</v>
+        <v>0.3553831441668878</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5098629540921704</v>
+        <v>0.5122669721664956</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>136</v>
@@ -1358,19 +1358,19 @@
         <v>137957</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>119652</v>
+        <v>119855</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>156318</v>
+        <v>158389</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3617476724053419</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3137479111325555</v>
+        <v>0.314282062529987</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4098946046696471</v>
+        <v>0.4153256706184752</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>6558</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2491</v>
+        <v>2202</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14115</v>
+        <v>14579</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07903436248477966</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0300211018373687</v>
+        <v>0.02653786260387976</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1701000852407105</v>
+        <v>0.1757007972760803</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7191</v>
+        <v>6853</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04198328803399438</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1441249037394206</v>
+        <v>0.1373572436594513</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -1504,19 +1504,19 @@
         <v>8653</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3802</v>
+        <v>3651</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17077</v>
+        <v>17395</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06512173309335603</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02861704213294511</v>
+        <v>0.02747769164216913</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1285186288873999</v>
+        <v>0.1309170938759275</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>22620</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15680</v>
+        <v>14556</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>32692</v>
+        <v>32375</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2726044648778044</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1889649908626742</v>
+        <v>0.1754190058969366</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3939788605188311</v>
+        <v>0.3901655237491082</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>8</v>
@@ -1554,19 +1554,19 @@
         <v>8057</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3922</v>
+        <v>3999</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14205</v>
+        <v>14259</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1614771172286251</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07860583186090568</v>
+        <v>0.08015935913103948</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2847033006122825</v>
+        <v>0.2857815818478888</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>28</v>
@@ -1575,19 +1575,19 @@
         <v>30677</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>20949</v>
+        <v>21444</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>41304</v>
+        <v>41111</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2308762929958104</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.157659766572574</v>
+        <v>0.1613910281026601</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3108573308586389</v>
+        <v>0.3093997564472372</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>27509</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18829</v>
+        <v>19252</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36646</v>
+        <v>36698</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3315243895755177</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2269179441465193</v>
+        <v>0.2320086153294964</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4416367554178521</v>
+        <v>0.4422666612681243</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -1625,19 +1625,19 @@
         <v>23422</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16037</v>
+        <v>16384</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30963</v>
+        <v>30400</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4694405115334419</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3214219343787945</v>
+        <v>0.3283791828562934</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6205923191765949</v>
+        <v>0.6093083521363384</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -1646,19 +1646,19 @@
         <v>50931</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38690</v>
+        <v>40477</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>62742</v>
+        <v>62474</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3833117107354392</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2911847748251312</v>
+        <v>0.3046352358184214</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4721965800407811</v>
+        <v>0.4701852317615326</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>26290</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17926</v>
+        <v>17979</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35531</v>
+        <v>35675</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3168367830618983</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2160351971714843</v>
+        <v>0.216670983805933</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4281935017337338</v>
+        <v>0.4299331168632156</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -1696,19 +1696,19 @@
         <v>16320</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10139</v>
+        <v>9965</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23593</v>
+        <v>22898</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3270990832039385</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2032091716585309</v>
+        <v>0.1997268730529892</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.472871614234765</v>
+        <v>0.4589487738800324</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -1717,19 +1717,19 @@
         <v>42611</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>31669</v>
+        <v>32412</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54090</v>
+        <v>54041</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3206902631753943</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2383445630536129</v>
+        <v>0.2439337758560194</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4070810558473918</v>
+        <v>0.4067170550702159</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>66129</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53447</v>
+        <v>51599</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>83336</v>
+        <v>83769</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1078878753268473</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08719714846621861</v>
+        <v>0.08418183603831657</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1359595377953216</v>
+        <v>0.1366664497562358</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1842,19 +1842,19 @@
         <v>8405</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4034</v>
+        <v>3954</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16489</v>
+        <v>16771</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03382779566640107</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01623674827193102</v>
+        <v>0.01591417573145694</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06636277779096979</v>
+        <v>0.06749672876554436</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>73</v>
@@ -1863,19 +1863,19 @@
         <v>74535</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>58814</v>
+        <v>59707</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>92903</v>
+        <v>92992</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08652534532120952</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06827603360279984</v>
+        <v>0.06931266080273349</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1078485529302137</v>
+        <v>0.1079516460386144</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>172920</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>150453</v>
+        <v>152155</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>194692</v>
+        <v>196145</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.282114044494491</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2454598591080295</v>
+        <v>0.2482368001806781</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3176341417474176</v>
+        <v>0.3200050907737909</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>38</v>
@@ -1913,19 +1913,19 @@
         <v>40061</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28872</v>
+        <v>29276</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51356</v>
+        <v>51769</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1612256246048615</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1161963496199708</v>
+        <v>0.1178238716805018</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2066847717070669</v>
+        <v>0.2083453993645143</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>210</v>
@@ -1934,19 +1934,19 @@
         <v>212981</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>188804</v>
+        <v>187436</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>237538</v>
+        <v>236461</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2472439429625102</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.219177511889787</v>
+        <v>0.217589816164109</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2757523515975455</v>
+        <v>0.2745011634085101</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>228293</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>205894</v>
+        <v>206227</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>252941</v>
+        <v>252081</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3724534508404155</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3359101442112331</v>
+        <v>0.3364529348842248</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4126663120872825</v>
+        <v>0.4112620074654341</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>101</v>
@@ -1984,19 +1984,19 @@
         <v>105918</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>90168</v>
+        <v>90392</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>121768</v>
+        <v>121043</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4262734608144993</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.362886952229825</v>
+        <v>0.3637859037539991</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4900596359361657</v>
+        <v>0.487141880924256</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>333</v>
@@ -2005,19 +2005,19 @@
         <v>334211</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>305203</v>
+        <v>307280</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>362517</v>
+        <v>362061</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3879777600667413</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3543021675627721</v>
+        <v>0.3567137842092363</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4208370685928686</v>
+        <v>0.4203076743454597</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>145602</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>124538</v>
+        <v>124726</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>168663</v>
+        <v>168155</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2375446293382462</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2031807691993537</v>
+        <v>0.203486756068087</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2751687751551213</v>
+        <v>0.2743395467585525</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>94</v>
@@ -2055,19 +2055,19 @@
         <v>94091</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>79778</v>
+        <v>77509</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>110082</v>
+        <v>109796</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3786731189142381</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3210724705095344</v>
+        <v>0.3119388067854633</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4430311212792322</v>
+        <v>0.4418790576799023</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>235</v>
@@ -2076,19 +2076,19 @@
         <v>239692</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>214068</v>
+        <v>211155</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>268305</v>
+        <v>267258</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.278252951649539</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2485066853999754</v>
+        <v>0.2451247979017531</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3114687061958223</v>
+        <v>0.3102532536489335</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>94169</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>76898</v>
+        <v>78810</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113924</v>
+        <v>113200</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2449889600810483</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2000557293598512</v>
+        <v>0.2050305730478589</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2963823180112921</v>
+        <v>0.2944984004938985</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2443,16 +2443,16 @@
         <v>1043</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9520</v>
+        <v>9533</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06012635125531907</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01487912016665043</v>
+        <v>0.01488945720897011</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1358649037717158</v>
+        <v>0.136054930615917</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>85</v>
@@ -2461,19 +2461,19 @@
         <v>98382</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79797</v>
+        <v>81318</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>118889</v>
+        <v>118177</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.216485938785611</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1755894708051432</v>
+        <v>0.1789379050493283</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2616117614000928</v>
+        <v>0.2600450856982893</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>120079</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>100624</v>
+        <v>101205</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>140053</v>
+        <v>138734</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3123953844140094</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2617815442433848</v>
+        <v>0.2632927947052957</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3643607333570681</v>
+        <v>0.3609286340315876</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -2511,19 +2511,19 @@
         <v>12200</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7106</v>
+        <v>6812</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20051</v>
+        <v>19203</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1741193595165825</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1014179482250407</v>
+        <v>0.09721794887697947</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2861636122412787</v>
+        <v>0.2740621042041486</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>123</v>
@@ -2532,19 +2532,19 @@
         <v>132279</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>113172</v>
+        <v>114189</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>151980</v>
+        <v>153752</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2910753105097443</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2490296436475686</v>
+        <v>0.2512676563332872</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3344268986450049</v>
+        <v>0.3383243939178207</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>107899</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>91096</v>
+        <v>91964</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>125542</v>
+        <v>125533</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2807090701138657</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2369941322702063</v>
+        <v>0.2392534114914648</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3266086114635191</v>
+        <v>0.3265845983521903</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -2582,19 +2582,19 @@
         <v>25626</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18074</v>
+        <v>17975</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34150</v>
+        <v>34613</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3657206137479085</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2579404191314796</v>
+        <v>0.2565359681675539</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4873718440508353</v>
+        <v>0.4939910648242338</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>127</v>
@@ -2603,19 +2603,19 @@
         <v>133525</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>115519</v>
+        <v>114165</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>154975</v>
+        <v>151797</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2938165657504949</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2541946478420101</v>
+        <v>0.251216537080772</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3410165093763503</v>
+        <v>0.3340227696813157</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>62234</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48520</v>
+        <v>47304</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78416</v>
+        <v>77664</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1619065853910766</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1262283140141423</v>
+        <v>0.1230645844016049</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.204005737262465</v>
+        <v>0.2020502895569955</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -2653,19 +2653,19 @@
         <v>28030</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20331</v>
+        <v>20411</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36488</v>
+        <v>36717</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4000336754801899</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2901517744263349</v>
+        <v>0.291293985906552</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5207387582522937</v>
+        <v>0.5240102791739648</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -2674,19 +2674,19 @@
         <v>90264</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73904</v>
+        <v>72846</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107091</v>
+        <v>108226</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1986221849541498</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1626227748943012</v>
+        <v>0.1602956139791461</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2356488332226164</v>
+        <v>0.238146991514109</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>35459</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>25565</v>
+        <v>25135</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>49298</v>
+        <v>50488</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.10182588079555</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07341216362894509</v>
+        <v>0.07217804764691106</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1415662779342534</v>
+        <v>0.1449830354764037</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -2799,19 +2799,19 @@
         <v>15241</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9039</v>
+        <v>8894</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24655</v>
+        <v>25746</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06268022810291787</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03717186994083982</v>
+        <v>0.03657458191935541</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1013933985318133</v>
+        <v>0.1058820210827001</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>45</v>
@@ -2820,19 +2820,19 @@
         <v>50701</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>37196</v>
+        <v>39091</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>65977</v>
+        <v>68496</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08573060137956549</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0628954502138825</v>
+        <v>0.0660997075145689</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1115607404633378</v>
+        <v>0.1158202963107754</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>64980</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51123</v>
+        <v>50078</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82693</v>
+        <v>81161</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1865983443257234</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1468067241007397</v>
+        <v>0.1438044416124022</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2374635476684713</v>
+        <v>0.2330643142881651</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -2870,19 +2870,19 @@
         <v>45143</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33206</v>
+        <v>32039</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58391</v>
+        <v>58647</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1856505296627203</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1365597332574612</v>
+        <v>0.1317617340773496</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2401351079909007</v>
+        <v>0.2411846470384563</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>97</v>
@@ -2891,19 +2891,19 @@
         <v>110123</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92370</v>
+        <v>92285</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>133176</v>
+        <v>131114</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1862086371478821</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1561891978022111</v>
+        <v>0.1560449581619885</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2251891000892298</v>
+        <v>0.2217019599230926</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>118882</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>101644</v>
+        <v>99702</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>137718</v>
+        <v>137790</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3413843017211424</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2918833879625848</v>
+        <v>0.2863060363364767</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3954724485698771</v>
+        <v>0.3956812395642337</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>90</v>
@@ -2941,19 +2941,19 @@
         <v>95650</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>80818</v>
+        <v>80228</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>111586</v>
+        <v>112402</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3933592280872448</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.332363294297584</v>
+        <v>0.3299382419554198</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4588995292401141</v>
+        <v>0.4622538592449648</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>202</v>
@@ -2962,19 +2962,19 @@
         <v>214532</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>188494</v>
+        <v>192448</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>240102</v>
+        <v>239919</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3627545153961105</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3187254685684033</v>
+        <v>0.3254125539446943</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4059899221756508</v>
+        <v>0.4056808060362584</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>128914</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>111569</v>
+        <v>110357</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>148020</v>
+        <v>149437</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3701914731575843</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3203837091109252</v>
+        <v>0.3169036152615704</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.425056618418495</v>
+        <v>0.4291264433149445</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>80</v>
@@ -3012,19 +3012,19 @@
         <v>87127</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>72490</v>
+        <v>73102</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>103348</v>
+        <v>102673</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3583100141471171</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2981133563960957</v>
+        <v>0.3006305196716813</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4250200200023515</v>
+        <v>0.4222428850320742</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>203</v>
@@ -3033,19 +3033,19 @@
         <v>216041</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>192621</v>
+        <v>190724</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>241052</v>
+        <v>237665</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.365306246076442</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3257050861671791</v>
+        <v>0.3224969603360238</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4075973283182935</v>
+        <v>0.4018705214215845</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>14820</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7909</v>
+        <v>8616</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24686</v>
+        <v>24094</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.15562550415142</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08305086585949101</v>
+        <v>0.09048224455162908</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2592280834047799</v>
+        <v>0.2530196790175508</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -3158,19 +3158,19 @@
         <v>3170</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8542</v>
+        <v>8650</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0407061289911748</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01234551319011591</v>
+        <v>0.01234380392666925</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1096744280733494</v>
+        <v>0.1110656187898206</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -3179,19 +3179,19 @@
         <v>17990</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10579</v>
+        <v>10475</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27039</v>
+        <v>28455</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1039215750180251</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06111222992732441</v>
+        <v>0.06051217876755911</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1561949100703184</v>
+        <v>0.1643712205448406</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>19204</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11657</v>
+        <v>11640</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>28421</v>
+        <v>28005</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2016693367736274</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1224150858325867</v>
+        <v>0.1222305123008702</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2984576512408501</v>
+        <v>0.2940881918984837</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>12</v>
@@ -3229,19 +3229,19 @@
         <v>15492</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7866</v>
+        <v>8794</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>25676</v>
+        <v>25359</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1989093264416803</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1009878773176503</v>
+        <v>0.1129120982049253</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3296602724923035</v>
+        <v>0.3255927376006147</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>29</v>
@@ -3250,19 +3250,19 @@
         <v>34697</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>23672</v>
+        <v>23730</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>48656</v>
+        <v>46430</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2004275672424979</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1367454341296882</v>
+        <v>0.1370778710318953</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2810652746028456</v>
+        <v>0.268209132929346</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>30148</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20857</v>
+        <v>21742</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40096</v>
+        <v>41000</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3165860098530467</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2190230389112212</v>
+        <v>0.2283222111032035</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4210557249747836</v>
+        <v>0.4305515986114771</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -3300,19 +3300,19 @@
         <v>31977</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22626</v>
+        <v>22586</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41463</v>
+        <v>41190</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4105630872974867</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2905041143663235</v>
+        <v>0.2899936634806871</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5323541803719923</v>
+        <v>0.5288480267891656</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -3321,19 +3321,19 @@
         <v>62125</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>48309</v>
+        <v>49963</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>76163</v>
+        <v>76785</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3588676890353035</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2790586439936357</v>
+        <v>0.2886167047917408</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4399629088515453</v>
+        <v>0.4435533466488705</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>31055</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21610</v>
+        <v>21999</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41201</v>
+        <v>42353</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3261191492219058</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2269338714576578</v>
+        <v>0.2310203076494344</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4326567033464509</v>
+        <v>0.4447613969386923</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -3371,19 +3371,19 @@
         <v>27246</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19058</v>
+        <v>19073</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37111</v>
+        <v>36422</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3498214572696582</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2446947094175104</v>
+        <v>0.2448851081261824</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4764814990345134</v>
+        <v>0.4676289599686108</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>54</v>
@@ -3392,19 +3392,19 @@
         <v>58302</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>45686</v>
+        <v>46081</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>72035</v>
+        <v>72472</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3367831687041735</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.26390873902407</v>
+        <v>0.2661880911839688</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.416117642475287</v>
+        <v>0.4186406018938363</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>144448</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>122444</v>
+        <v>123437</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>169702</v>
+        <v>169890</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1744872810217812</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1479071091804561</v>
+        <v>0.1491062284475008</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2049932602762478</v>
+        <v>0.205220052004365</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -3517,19 +3517,19 @@
         <v>22625</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14671</v>
+        <v>14194</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33266</v>
+        <v>32921</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05784682357950875</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03750974581204088</v>
+        <v>0.03629045797449933</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08505421287333445</v>
+        <v>0.08417052212498317</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>146</v>
@@ -3538,19 +3538,19 @@
         <v>167073</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>141407</v>
+        <v>143496</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>191811</v>
+        <v>192508</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1370619204849919</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1160064578666863</v>
+        <v>0.1177195437144644</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.157355968579327</v>
+        <v>0.1579278469405433</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>204263</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>181214</v>
+        <v>181004</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>230114</v>
+        <v>234646</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2467414684490753</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2188987042940514</v>
+        <v>0.2186454014803156</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2779676042342413</v>
+        <v>0.283442814931583</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -3588,19 +3588,19 @@
         <v>72836</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>57770</v>
+        <v>57344</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>91077</v>
+        <v>91222</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1862250253116924</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1477062019224077</v>
+        <v>0.1466169441404069</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2328635292565864</v>
+        <v>0.2332348513851835</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>249</v>
@@ -3609,19 +3609,19 @@
         <v>277099</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>245045</v>
+        <v>247733</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>307305</v>
+        <v>311000</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.227324108876891</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2010276859855856</v>
+        <v>0.203233156625327</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2521036846477535</v>
+        <v>0.2551349704303161</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>256929</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>230942</v>
+        <v>229543</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>283604</v>
+        <v>283157</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3103593066666653</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2789680995639077</v>
+        <v>0.2772784449067887</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3425811737688066</v>
+        <v>0.3420409163967627</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>142</v>
@@ -3659,19 +3659,19 @@
         <v>153253</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>132222</v>
+        <v>131139</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>172557</v>
+        <v>173973</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3918336550335439</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3380628005485786</v>
+        <v>0.3352923098425138</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.441190990539881</v>
+        <v>0.4448094504286804</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>386</v>
@@ -3680,19 +3680,19 @@
         <v>410182</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>379722</v>
+        <v>377615</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>442914</v>
+        <v>446433</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3365012382827988</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3115127825775967</v>
+        <v>0.3097842883678782</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3633540003395743</v>
+        <v>0.3662407615972035</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>222203</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>193403</v>
+        <v>193998</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>246367</v>
+        <v>247068</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2684119438624782</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.233622780782563</v>
+        <v>0.2343413397403316</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2976004358509413</v>
+        <v>0.2984479517284522</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>132</v>
@@ -3730,19 +3730,19 @@
         <v>142404</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>123209</v>
+        <v>125088</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>162675</v>
+        <v>164512</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3640944960752549</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3150182362868461</v>
+        <v>0.3198234149856945</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.415923132293976</v>
+        <v>0.4206206050259827</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>343</v>
@@ -3751,19 +3751,19 @@
         <v>364607</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>331366</v>
+        <v>331613</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>396605</v>
+        <v>397543</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2991127323553184</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2718429117237569</v>
+        <v>0.272045604986772</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3253630244229864</v>
+        <v>0.3261322665129968</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>62948</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50078</v>
+        <v>51768</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76314</v>
+        <v>76928</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2660352003570825</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2116401170447497</v>
+        <v>0.2187824046132306</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3225196058745892</v>
+        <v>0.3251160089199643</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4115,19 +4115,19 @@
         <v>3877</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10014</v>
+        <v>10299</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08319437295683124</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02133141197399182</v>
+        <v>0.02131893877182243</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2148969897311004</v>
+        <v>0.2210093330490929</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>70</v>
@@ -4136,19 +4136,19 @@
         <v>66825</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53334</v>
+        <v>54004</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80651</v>
+        <v>81523</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2359512691620005</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1883140136877641</v>
+        <v>0.1906806794379431</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2847672745398026</v>
+        <v>0.28784585480983</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>74819</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>62233</v>
+        <v>62023</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>90532</v>
+        <v>88338</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3162046477197633</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2630102694245134</v>
+        <v>0.2621260532686289</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3826088742595084</v>
+        <v>0.3733359097659795</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -4186,19 +4186,19 @@
         <v>12522</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6627</v>
+        <v>7135</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19958</v>
+        <v>19687</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2687259854654962</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1422047274786867</v>
+        <v>0.1531074249953395</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4282917580693859</v>
+        <v>0.4224793126131576</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>94</v>
@@ -4207,19 +4207,19 @@
         <v>87342</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>73004</v>
+        <v>73677</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>102307</v>
+        <v>103584</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.308392690025188</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2577675062350161</v>
+        <v>0.2601429138141677</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3612301293384213</v>
+        <v>0.3657414920683089</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>62165</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49534</v>
+        <v>49736</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>77595</v>
+        <v>75416</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2627246736208226</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2093445766377264</v>
+        <v>0.2101963103350755</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3279341401009612</v>
+        <v>0.3187276411221438</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -4257,19 +4257,19 @@
         <v>20356</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13479</v>
+        <v>13449</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27013</v>
+        <v>27684</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4368403212141059</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2892502968556377</v>
+        <v>0.2886032551029138</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5796951464597228</v>
+        <v>0.5940879782787429</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>82</v>
@@ -4278,19 +4278,19 @@
         <v>82522</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>67919</v>
+        <v>68171</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>97492</v>
+        <v>95952</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2913729970651098</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2398115557892582</v>
+        <v>0.2407026679623475</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3442311331345653</v>
+        <v>0.3387935449258789</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>36684</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26936</v>
+        <v>25998</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48265</v>
+        <v>48693</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1550354783023316</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.113837488872497</v>
+        <v>0.10987202781695</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2039796121409598</v>
+        <v>0.2057873086925715</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -4328,19 +4328,19 @@
         <v>9844</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5099</v>
+        <v>5031</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17122</v>
+        <v>17051</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2112393203635666</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1094135446131729</v>
+        <v>0.1079589075753225</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3674235597672521</v>
+        <v>0.3659012719391718</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -4349,19 +4349,19 @@
         <v>46528</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34821</v>
+        <v>35436</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60666</v>
+        <v>59576</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1642830437477018</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1229468783822803</v>
+        <v>0.1251194017272702</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2142015317222326</v>
+        <v>0.2103549433298441</v>
       </c>
     </row>
     <row r="8">
@@ -4453,19 +4453,19 @@
         <v>49180</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>36194</v>
+        <v>36626</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>62557</v>
+        <v>64301</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1390864835087239</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.102359798750382</v>
+        <v>0.1035808694593309</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1769162338300882</v>
+        <v>0.1818490864990893</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -4474,19 +4474,19 @@
         <v>12761</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6337</v>
+        <v>6692</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22359</v>
+        <v>23264</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05557381758629837</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02759819974487706</v>
+        <v>0.02914247258951784</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09737235857330685</v>
+        <v>0.1013143951371492</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>59</v>
@@ -4495,19 +4495,19 @@
         <v>61941</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>49061</v>
+        <v>48161</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>78766</v>
+        <v>79569</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.106206095801251</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08412136896990788</v>
+        <v>0.08257814964171874</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1350535762543123</v>
+        <v>0.1364300995321696</v>
       </c>
     </row>
     <row r="10">
@@ -4524,19 +4524,19 @@
         <v>86580</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71642</v>
+        <v>70756</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105025</v>
+        <v>103488</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2448568571930364</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2026101260515496</v>
+        <v>0.2001053898925469</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2970211640000164</v>
+        <v>0.29267466869516</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -4545,19 +4545,19 @@
         <v>48768</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36808</v>
+        <v>36230</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61206</v>
+        <v>60710</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2123817359473283</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1602968293391185</v>
+        <v>0.1577787495933914</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2665492526940794</v>
+        <v>0.2643887361870421</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -4566,19 +4566,19 @@
         <v>135348</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117373</v>
+        <v>115080</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>157054</v>
+        <v>156321</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2320708376639994</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2012501641331182</v>
+        <v>0.19731843084899</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2692880703410408</v>
+        <v>0.2680306987434314</v>
       </c>
     </row>
     <row r="11">
@@ -4595,19 +4595,19 @@
         <v>116756</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99005</v>
+        <v>97190</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>135066</v>
+        <v>134698</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3301973912173508</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2799942014440596</v>
+        <v>0.2748619702426906</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3819804043940184</v>
+        <v>0.3809378792835271</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>81</v>
@@ -4616,19 +4616,19 @@
         <v>86214</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>71979</v>
+        <v>71451</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>100871</v>
+        <v>102304</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3754573083473369</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3134645611834181</v>
+        <v>0.3111665567278603</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4392898297428308</v>
+        <v>0.4455286514174693</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>190</v>
@@ -4637,19 +4637,19 @@
         <v>202970</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>181239</v>
+        <v>179201</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>227408</v>
+        <v>227411</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3480170070373557</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3107557154851522</v>
+        <v>0.3072613192397189</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3899187001606057</v>
+        <v>0.3899230402817672</v>
       </c>
     </row>
     <row r="12">
@@ -4666,19 +4666,19 @@
         <v>101078</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>83857</v>
+        <v>85217</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>120160</v>
+        <v>119495</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.285859268080889</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2371546988064606</v>
+        <v>0.2410006407792675</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3398226790647155</v>
+        <v>0.3379417683245646</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>80</v>
@@ -4687,19 +4687,19 @@
         <v>81881</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>67529</v>
+        <v>67264</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>97658</v>
+        <v>98237</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3565871381190365</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2940853472449557</v>
+        <v>0.2929319679845716</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4252952425350613</v>
+        <v>0.4278194244947449</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>173</v>
@@ -4708,19 +4708,19 @@
         <v>182959</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>160350</v>
+        <v>160354</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>205514</v>
+        <v>205392</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3137060594973939</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2749399495966912</v>
+        <v>0.2749469479967538</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3523785254026352</v>
+        <v>0.3521689403303773</v>
       </c>
     </row>
     <row r="13">
@@ -4812,19 +4812,19 @@
         <v>16432</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9720</v>
+        <v>9548</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24942</v>
+        <v>25473</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.162134678068366</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09590061781108836</v>
+        <v>0.09420539670185381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2461010993359725</v>
+        <v>0.2513345578010199</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -4833,19 +4833,19 @@
         <v>6527</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3178</v>
+        <v>2300</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13762</v>
+        <v>13131</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06253869795508002</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03044728092340852</v>
+        <v>0.02203574063764554</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1318688827508305</v>
+        <v>0.1258178923385866</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -4854,19 +4854,19 @@
         <v>22959</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13760</v>
+        <v>14602</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>33828</v>
+        <v>34882</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1116073471285132</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06689013056526319</v>
+        <v>0.07098216158574597</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1644454543535682</v>
+        <v>0.1695678948015719</v>
       </c>
     </row>
     <row r="15">
@@ -4883,19 +4883,19 @@
         <v>23992</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16572</v>
+        <v>16291</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>34541</v>
+        <v>34717</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2367264330927967</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1635155179817535</v>
+        <v>0.1607409555208534</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3408043284058618</v>
+        <v>0.3425475807177533</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>26</v>
@@ -4904,19 +4904,19 @@
         <v>30053</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>20997</v>
+        <v>21593</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>40773</v>
+        <v>40426</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2879726638936053</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2011915306176214</v>
+        <v>0.206905577037542</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3906837920116543</v>
+        <v>0.3873671002015907</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>49</v>
@@ -4925,19 +4925,19 @@
         <v>54046</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>41088</v>
+        <v>41849</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>67583</v>
+        <v>67406</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2627248243948079</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1997365121325221</v>
+        <v>0.2034326906907709</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3285315717049311</v>
+        <v>0.3276695860392618</v>
       </c>
     </row>
     <row r="16">
@@ -4954,19 +4954,19 @@
         <v>36951</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26995</v>
+        <v>26652</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47182</v>
+        <v>48393</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3645845810413847</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2663502454324874</v>
+        <v>0.2629729794805711</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4655374563286397</v>
+        <v>0.4774866281481275</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -4975,19 +4975,19 @@
         <v>39897</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29373</v>
+        <v>30649</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50096</v>
+        <v>50121</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3822940691378757</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2814524425848411</v>
+        <v>0.2936841697823042</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4800256269608144</v>
+        <v>0.4802567194176411</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>69</v>
@@ -4996,19 +4996,19 @@
         <v>76848</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62185</v>
+        <v>62056</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89959</v>
+        <v>91217</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3735690115857598</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3022903006469186</v>
+        <v>0.3016660241539734</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4373055490409104</v>
+        <v>0.4434219913732232</v>
       </c>
     </row>
     <row r="17">
@@ -5025,19 +5025,19 @@
         <v>23975</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15956</v>
+        <v>15847</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33867</v>
+        <v>34020</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2365543077974527</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1574350770838136</v>
+        <v>0.1563554482910185</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.334154538191029</v>
+        <v>0.3356653845381794</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -5046,19 +5046,19 @@
         <v>27885</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19593</v>
+        <v>19292</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37066</v>
+        <v>37351</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.267194569013439</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1877445029491798</v>
+        <v>0.1848587133290069</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3551663950339201</v>
+        <v>0.3578953940565023</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>50</v>
@@ -5067,19 +5067,19 @@
         <v>51860</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39686</v>
+        <v>39599</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65487</v>
+        <v>66146</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2520988168909191</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1929205202464414</v>
+        <v>0.1924984667713259</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3183435675155709</v>
+        <v>0.3215456265028613</v>
       </c>
     </row>
     <row r="18">
@@ -5171,19 +5171,19 @@
         <v>128561</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>111286</v>
+        <v>108849</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>151791</v>
+        <v>150614</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1858996180174133</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1609196771777047</v>
+        <v>0.1573961285676557</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2194894967298802</v>
+        <v>0.2177876557983968</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -5192,19 +5192,19 @@
         <v>23165</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15456</v>
+        <v>14738</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35838</v>
+        <v>36226</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06086559853868546</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04061100899731229</v>
+        <v>0.03872358301227514</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09416487240679888</v>
+        <v>0.09518482263649228</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>149</v>
@@ -5213,19 +5213,19 @@
         <v>151726</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>131721</v>
+        <v>130481</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>175700</v>
+        <v>176507</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1415157133901294</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1228568556227078</v>
+        <v>0.1217008499964554</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1638768597088046</v>
+        <v>0.1646291006565536</v>
       </c>
     </row>
     <row r="20">
@@ -5242,19 +5242,19 @@
         <v>185392</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>161992</v>
+        <v>163936</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>208820</v>
+        <v>208401</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2680769111882174</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2342406898483996</v>
+        <v>0.2370519140656161</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3019534067917338</v>
+        <v>0.3013472273369758</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>83</v>
@@ -5263,19 +5263,19 @@
         <v>91344</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>75064</v>
+        <v>75124</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>108425</v>
+        <v>108210</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2400088226959146</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1972343456624132</v>
+        <v>0.1973919924819441</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2848916434494538</v>
+        <v>0.2843253246905983</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>270</v>
@@ -5284,19 +5284,19 @@
         <v>276736</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>246551</v>
+        <v>250105</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>305854</v>
+        <v>306803</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2581134519000476</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2299596642303406</v>
+        <v>0.2332748406327691</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2852719718428343</v>
+        <v>0.2861570317161372</v>
       </c>
     </row>
     <row r="21">
@@ -5313,19 +5313,19 @@
         <v>215872</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>191936</v>
+        <v>188117</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>240455</v>
+        <v>241388</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3121511597767548</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2775391529459747</v>
+        <v>0.2720177200268201</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3476973641378238</v>
+        <v>0.349047429550475</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>139</v>
@@ -5334,19 +5334,19 @@
         <v>146467</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>127541</v>
+        <v>129318</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>165643</v>
+        <v>166575</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3848478825672135</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3351182960602405</v>
+        <v>0.3397866984878833</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4352326213175272</v>
+        <v>0.4376808113663161</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>341</v>
@@ -5355,19 +5355,19 @@
         <v>362340</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>332906</v>
+        <v>332148</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>398037</v>
+        <v>394377</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.337956651950001</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3105040578245134</v>
+        <v>0.3097965992509178</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3712521715103606</v>
+        <v>0.3678386285930928</v>
       </c>
     </row>
     <row r="22">
@@ -5384,19 +5384,19 @@
         <v>161737</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>143185</v>
+        <v>141600</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>187887</v>
+        <v>186249</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2338723110176145</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2070460729162876</v>
+        <v>0.2047532702932841</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2716842250089432</v>
+        <v>0.2693157795595532</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>117</v>
@@ -5405,19 +5405,19 @@
         <v>119609</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>101875</v>
+        <v>102241</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>139483</v>
+        <v>137798</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3142776961981865</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2676794813604712</v>
+        <v>0.2686412236797124</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3664962513783757</v>
+        <v>0.3620691898687993</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>268</v>
@@ -5426,19 +5426,19 @@
         <v>281347</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>251854</v>
+        <v>252499</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>309481</v>
+        <v>310315</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.262414182759822</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2349059477907085</v>
+        <v>0.2355073393789295</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2886549304199703</v>
+        <v>0.2894327335561609</v>
       </c>
     </row>
     <row r="23">
@@ -5769,19 +5769,19 @@
         <v>59472</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>48835</v>
+        <v>49880</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70553</v>
+        <v>72146</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3463499400824747</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2844027515440639</v>
+        <v>0.2904876974727753</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4108809375636115</v>
+        <v>0.4201549551363802</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -5790,19 +5790,19 @@
         <v>12559</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8067</v>
+        <v>8496</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17912</v>
+        <v>17541</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2801389352339108</v>
+        <v>0.2801389352339107</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.179929512418838</v>
+        <v>0.1894997132598638</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3995267042426773</v>
+        <v>0.39125116196745</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>108</v>
@@ -5811,19 +5811,19 @@
         <v>72032</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60371</v>
+        <v>61162</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84313</v>
+        <v>83869</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3326421011854152</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2787921655026818</v>
+        <v>0.2824481280307977</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3893575518835159</v>
+        <v>0.3873090216765184</v>
       </c>
     </row>
     <row r="5">
@@ -5840,19 +5840,19 @@
         <v>62231</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50621</v>
+        <v>51783</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>72703</v>
+        <v>73382</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3624123925892632</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.294804270223316</v>
+        <v>0.3015691114271219</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4234010199204818</v>
+        <v>0.4273579227764054</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -5861,19 +5861,19 @@
         <v>13816</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9129</v>
+        <v>9155</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19161</v>
+        <v>18753</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3081697036249572</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2036339588700889</v>
+        <v>0.2041966698180842</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4273853108473672</v>
+        <v>0.418288557386766</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>103</v>
@@ -5882,19 +5882,19 @@
         <v>76046</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>62769</v>
+        <v>63879</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>87769</v>
+        <v>88361</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3511823856838153</v>
+        <v>0.3511823856838154</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2898665486124055</v>
+        <v>0.2949943523795489</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4053175615746786</v>
+        <v>0.4080527646498321</v>
       </c>
     </row>
     <row r="6">
@@ -5911,19 +5911,19 @@
         <v>28760</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21510</v>
+        <v>21422</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38463</v>
+        <v>37835</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1674907781007643</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1252650588167842</v>
+        <v>0.1247525208245579</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.223999330408011</v>
+        <v>0.2203408830364721</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -5932,19 +5932,19 @@
         <v>9518</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5652</v>
+        <v>5682</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14357</v>
+        <v>14297</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.21231043930912</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.126064886842755</v>
+        <v>0.1267337504455513</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3202441267070428</v>
+        <v>0.3189020960712496</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>53</v>
@@ -5953,19 +5953,19 @@
         <v>38278</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>29495</v>
+        <v>30472</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>48935</v>
+        <v>48618</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1767699107263773</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1362087079473057</v>
+        <v>0.1407175618225492</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2259840366008255</v>
+        <v>0.2245179677753209</v>
       </c>
     </row>
     <row r="7">
@@ -5982,19 +5982,19 @@
         <v>21249</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14151</v>
+        <v>14010</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30411</v>
+        <v>30044</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1237468892274978</v>
+        <v>0.1237468892274979</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08241004730965719</v>
+        <v>0.08159119596793529</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1771065237277566</v>
+        <v>0.1749678036757064</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -6003,19 +6003,19 @@
         <v>8939</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4834</v>
+        <v>4507</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16147</v>
+        <v>15214</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1993809218320122</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.107829227830749</v>
+        <v>0.1005295258031678</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3601652801847304</v>
+        <v>0.3393583331463126</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -6024,19 +6024,19 @@
         <v>30187</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21903</v>
+        <v>21062</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41338</v>
+        <v>41127</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1394056024043923</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1011497908763441</v>
+        <v>0.09726284661995095</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1909011462871386</v>
+        <v>0.1899256135957177</v>
       </c>
     </row>
     <row r="8">
@@ -6128,19 +6128,19 @@
         <v>82058</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>68890</v>
+        <v>67520</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>97707</v>
+        <v>95900</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2487911914559502</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2088686877200576</v>
+        <v>0.2047157586257351</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2962378104468159</v>
+        <v>0.290759352598586</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>61</v>
@@ -6149,19 +6149,19 @@
         <v>38580</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>30333</v>
+        <v>28893</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>49406</v>
+        <v>47946</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1760994959880617</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1384524865119273</v>
+        <v>0.1318810790691109</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2255118911174235</v>
+        <v>0.2188487541714033</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>161</v>
@@ -6170,19 +6170,19 @@
         <v>120638</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>104357</v>
+        <v>104417</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>138880</v>
+        <v>138430</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2197781187496354</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1901177628031394</v>
+        <v>0.1902257111596108</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2530104895953535</v>
+        <v>0.2521906494743709</v>
       </c>
     </row>
     <row r="10">
@@ -6199,19 +6199,19 @@
         <v>105234</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>90888</v>
+        <v>89815</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>123544</v>
+        <v>122598</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3190599728082262</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2755652131639345</v>
+        <v>0.2723105940089226</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3745752928307394</v>
+        <v>0.3717055985348411</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -6220,19 +6220,19 @@
         <v>54779</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43841</v>
+        <v>44830</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66206</v>
+        <v>66651</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2500373033010753</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2001126356765624</v>
+        <v>0.2046256426341853</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3021973845690961</v>
+        <v>0.3042274549604277</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>197</v>
@@ -6241,19 +6241,19 @@
         <v>160013</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>139302</v>
+        <v>141787</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>180414</v>
+        <v>180770</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2915113000760083</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2537797023078558</v>
+        <v>0.2583061955809506</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3286772352676094</v>
+        <v>0.3293265608695243</v>
       </c>
     </row>
     <row r="11">
@@ -6270,19 +6270,19 @@
         <v>89901</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>74630</v>
+        <v>73573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>105013</v>
+        <v>106664</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2725730396798602</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2262721466075799</v>
+        <v>0.2230657603256957</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3183887220280364</v>
+        <v>0.3233957067869241</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>78</v>
@@ -6291,19 +6291,19 @@
         <v>58387</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48227</v>
+        <v>47536</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>71583</v>
+        <v>71918</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2665060225736426</v>
+        <v>0.2665060225736427</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2201316173222634</v>
+        <v>0.2169759705980749</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3267390410978983</v>
+        <v>0.3282685191601533</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>168</v>
@@ -6312,19 +6312,19 @@
         <v>148289</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>128522</v>
+        <v>130180</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>168809</v>
+        <v>170192</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2701515414979818</v>
+        <v>0.2701515414979819</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2341410993709224</v>
+        <v>0.2371622064250713</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3075355783083631</v>
+        <v>0.3100552586711713</v>
       </c>
     </row>
     <row r="12">
@@ -6341,19 +6341,19 @@
         <v>52632</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39259</v>
+        <v>40632</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>66888</v>
+        <v>68079</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1595757960559634</v>
+        <v>0.1595757960559633</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1190303413412717</v>
+        <v>0.1231935640557847</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2027987062659752</v>
+        <v>0.2064101139683976</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>84</v>
@@ -6362,19 +6362,19 @@
         <v>67337</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>53902</v>
+        <v>55116</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>80724</v>
+        <v>80192</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3073571781372202</v>
+        <v>0.3073571781372203</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2460362439426187</v>
+        <v>0.2515765903254683</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3684611748121956</v>
+        <v>0.3660347316856565</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>136</v>
@@ -6383,19 +6383,19 @@
         <v>119969</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>102873</v>
+        <v>103665</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>140161</v>
+        <v>140293</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2185590396763744</v>
+        <v>0.2185590396763745</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1874133435094191</v>
+        <v>0.1888555407166436</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2553443580315157</v>
+        <v>0.2555855283324534</v>
       </c>
     </row>
     <row r="13">
@@ -6487,19 +6487,19 @@
         <v>46503</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>36563</v>
+        <v>36751</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58167</v>
+        <v>57973</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3128761753856258</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2459976710083773</v>
+        <v>0.2472586909420496</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3913502306792293</v>
+        <v>0.3900433880853363</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>35</v>
@@ -6508,19 +6508,19 @@
         <v>21878</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15522</v>
+        <v>15443</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28487</v>
+        <v>29267</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2306224710304538</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1636174227204812</v>
+        <v>0.1627845887936959</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3002912086313163</v>
+        <v>0.3085116346778832</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>95</v>
@@ -6529,19 +6529,19 @@
         <v>68382</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>56004</v>
+        <v>57352</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>80697</v>
+        <v>82438</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2808303549781119</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2299982854977719</v>
+        <v>0.2355345199293138</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3314077149675183</v>
+        <v>0.3385581554561489</v>
       </c>
     </row>
     <row r="15">
@@ -6558,19 +6558,19 @@
         <v>40926</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>31257</v>
+        <v>29433</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>52924</v>
+        <v>51231</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2753494234458909</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2102964181968882</v>
+        <v>0.1980292112364964</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3560737450710803</v>
+        <v>0.3446863372071756</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>43</v>
@@ -6579,19 +6579,19 @@
         <v>29508</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>22468</v>
+        <v>22450</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>37758</v>
+        <v>37879</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.3110442205286795</v>
+        <v>0.3110442205286796</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2368352266723855</v>
+        <v>0.2366513802796588</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3980089859588766</v>
+        <v>0.3992943893127819</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>90</v>
@@ -6600,19 +6600,19 @@
         <v>70433</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>58893</v>
+        <v>58210</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>85021</v>
+        <v>82768</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2892560196990938</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2418640977735469</v>
+        <v>0.2390576973003387</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3491636911596785</v>
+        <v>0.3399136287805549</v>
       </c>
     </row>
     <row r="16">
@@ -6629,19 +6629,19 @@
         <v>33671</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24109</v>
+        <v>23797</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45511</v>
+        <v>45393</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2265397789489387</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1622058316387054</v>
+        <v>0.1601052676789253</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3062002722875846</v>
+        <v>0.3054029398032933</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -6650,19 +6650,19 @@
         <v>23538</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17126</v>
+        <v>17527</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30808</v>
+        <v>31323</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2481145214197595</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1805312549893516</v>
+        <v>0.1847602988078865</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.32475038430237</v>
+        <v>0.3301841113601689</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -6671,19 +6671,19 @@
         <v>57209</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46699</v>
+        <v>45571</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>73113</v>
+        <v>70975</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2349452401737961</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1917821626532172</v>
+        <v>0.1871510066139531</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3002620240701033</v>
+        <v>0.2914817436289948</v>
       </c>
     </row>
     <row r="17">
@@ -6700,19 +6700,19 @@
         <v>27532</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17847</v>
+        <v>17195</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39271</v>
+        <v>38716</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1852346222195445</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1200757041678576</v>
+        <v>0.1156893219710169</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2642153802546061</v>
+        <v>0.2604821506845327</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -6721,19 +6721,19 @@
         <v>19943</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13255</v>
+        <v>14124</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28032</v>
+        <v>27773</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2102187870211072</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1397251077706555</v>
+        <v>0.1488805070088616</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2954911106919285</v>
+        <v>0.2927615887712305</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -6742,19 +6742,19 @@
         <v>47474</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35916</v>
+        <v>34992</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>62172</v>
+        <v>60916</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1949683851489981</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1475010195769064</v>
+        <v>0.1437042674909505</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2553295089832234</v>
+        <v>0.2501707624859896</v>
       </c>
     </row>
     <row r="18">
@@ -6846,19 +6846,19 @@
         <v>188033</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>167940</v>
+        <v>166651</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>210615</v>
+        <v>208136</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2892069630492981</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2583022644664927</v>
+        <v>0.2563193555114466</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3239387727705969</v>
+        <v>0.3201261238432266</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>117</v>
@@ -6867,19 +6867,19 @@
         <v>73018</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61716</v>
+        <v>62450</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86865</v>
+        <v>86325</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2035163484287291</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1720145434768578</v>
+        <v>0.1740615004620252</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2421123663421239</v>
+        <v>0.240604993093506</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>364</v>
@@ -6888,19 +6888,19 @@
         <v>261051</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>237254</v>
+        <v>238851</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>286114</v>
+        <v>285766</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2587355399100552</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2351498187170402</v>
+        <v>0.2367321808482408</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2835763192961318</v>
+        <v>0.2832315607848491</v>
       </c>
     </row>
     <row r="20">
@@ -6917,19 +6917,19 @@
         <v>208390</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>185615</v>
+        <v>185558</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>233916</v>
+        <v>231174</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3205170967095431</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2854871597288117</v>
+        <v>0.2853996666393087</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3597767547714068</v>
+        <v>0.3555600586826571</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>149</v>
@@ -6938,19 +6938,19 @@
         <v>98102</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>83427</v>
+        <v>84208</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>113494</v>
+        <v>113326</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2734322456137774</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2325281598829535</v>
+        <v>0.2347051143349845</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3163309854564976</v>
+        <v>0.3158628858655615</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>390</v>
@@ -6959,19 +6959,19 @@
         <v>306493</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>280787</v>
+        <v>278735</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>333495</v>
+        <v>331714</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3037738112571019</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2782965510856539</v>
+        <v>0.2762627177226364</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.330536280897414</v>
+        <v>0.3287711476343311</v>
       </c>
     </row>
     <row r="21">
@@ -6988,19 +6988,19 @@
         <v>152333</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>130530</v>
+        <v>132511</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>175052</v>
+        <v>172326</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.234296981886531</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2007627388541011</v>
+        <v>0.2038104873055196</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2692413809996027</v>
+        <v>0.2650474853229574</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>128</v>
@@ -7009,19 +7009,19 @@
         <v>91443</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>77336</v>
+        <v>78767</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>107888</v>
+        <v>107116</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2548710422360101</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2155522886352164</v>
+        <v>0.2195403637119493</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3007059346210725</v>
+        <v>0.2985551508362365</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>289</v>
@@ -7030,19 +7030,19 @@
         <v>243776</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>218640</v>
+        <v>220002</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>269711</v>
+        <v>273240</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2416130794705809</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2167001784355194</v>
+        <v>0.2180504817553036</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2673183572716405</v>
+        <v>0.270815906758988</v>
       </c>
     </row>
     <row r="22">
@@ -7059,19 +7059,19 @@
         <v>101413</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>82947</v>
+        <v>84237</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>120214</v>
+        <v>122346</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1559789583546278</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1275770244627719</v>
+        <v>0.1295618872743551</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1848967067023499</v>
+        <v>0.1881753295354254</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>121</v>
@@ -7080,19 +7080,19 @@
         <v>96218</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>81454</v>
+        <v>80911</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>111115</v>
+        <v>111715</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2681803637214832</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2270301357312564</v>
+        <v>0.2255168120891536</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3097027129142164</v>
+        <v>0.3113730229895936</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>220</v>
@@ -7101,19 +7101,19 @@
         <v>197631</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>174128</v>
+        <v>174208</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>223573</v>
+        <v>222564</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.195877569362262</v>
+        <v>0.1958775693622619</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1725831791856091</v>
+        <v>0.1726626335202833</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2215895067999494</v>
+        <v>0.2205896266223388</v>
       </c>
     </row>
     <row r="23">
